--- a/docs/Plano Projeto.xlsx
+++ b/docs/Plano Projeto.xlsx
@@ -9,12 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8310" windowHeight="4125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8310" windowHeight="4125" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Índice de Revisão" sheetId="5" r:id="rId1"/>
+    <sheet name="Estimativa de Esforço Inicial" sheetId="1" r:id="rId2"/>
+    <sheet name="Recontagem Esforço" sheetId="2" r:id="rId3"/>
+    <sheet name="Analise de Valor Agregado" sheetId="3" r:id="rId4"/>
+    <sheet name="Dados" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="149">
   <si>
     <t>TITLE:</t>
   </si>
@@ -200,14 +205,288 @@
     <t>Gestão - Testes - Integração III</t>
   </si>
   <si>
-    <t>http://www.planitpoker.com/board/#/room/79246ed16ee94d13a9736aea92d1623b</t>
+    <t xml:space="preserve">Sprint 8 </t>
+  </si>
+  <si>
+    <t>Turnos</t>
+  </si>
+  <si>
+    <t>Empate</t>
+  </si>
+  <si>
+    <t>Input-Promoção</t>
+  </si>
+  <si>
+    <t>Animação Movimento</t>
+  </si>
+  <si>
+    <t>Notificação</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>Produto Integrado II</t>
+  </si>
+  <si>
+    <t>Apresentação II</t>
+  </si>
+  <si>
+    <t>Ao Passar</t>
+  </si>
+  <si>
+    <t>Promoção do Peão</t>
+  </si>
+  <si>
+    <t>Custo</t>
+  </si>
+  <si>
+    <t>Esforço Antigo (HH)</t>
+  </si>
+  <si>
+    <t>Novo Esforço(HH)</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Sprint 5</t>
+  </si>
+  <si>
+    <t>Sprint 6</t>
+  </si>
+  <si>
+    <t>Sprint 7</t>
+  </si>
+  <si>
+    <t>Sprint 8</t>
+  </si>
+  <si>
+    <t>Sprint 9</t>
+  </si>
+  <si>
+    <t>Sprint 10</t>
+  </si>
+  <si>
+    <t>Sprint 11</t>
+  </si>
+  <si>
+    <t>Sprints</t>
+  </si>
+  <si>
+    <t>VP</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 1 </t>
+  </si>
+  <si>
+    <t>Movimentos Básicos</t>
+  </si>
+  <si>
+    <t>Impressão - Tabuleiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impressão - Peças </t>
+  </si>
+  <si>
+    <t>Value Function Simples</t>
+  </si>
+  <si>
+    <t>Escopo Produto</t>
+  </si>
+  <si>
+    <t>Escopo Projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esforço </t>
+  </si>
+  <si>
+    <t>Arquitetura</t>
+  </si>
+  <si>
+    <t>Sequencia de Atividades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cronograma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riscos </t>
+  </si>
+  <si>
+    <t>Orçamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 4 </t>
+  </si>
+  <si>
+    <t>Plano Testes</t>
+  </si>
+  <si>
+    <t>Pl. Gerencia de Config</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 5 </t>
+  </si>
+  <si>
+    <t>Input - Movimentação</t>
+  </si>
+  <si>
+    <t>Guloso</t>
+  </si>
+  <si>
+    <t>Plano de Comunicação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testes- Integração 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 6 </t>
+  </si>
+  <si>
+    <t>Movimento Rei</t>
+  </si>
+  <si>
+    <t>Roque</t>
+  </si>
+  <si>
+    <t>Xeque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI - Integração I </t>
+  </si>
+  <si>
+    <t>Apresentação 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 7 </t>
+  </si>
+  <si>
+    <t>Xeque-Mate</t>
+  </si>
+  <si>
+    <t>JL- Promo Peao</t>
+  </si>
+  <si>
+    <t>Testes - Integração II</t>
+  </si>
+  <si>
+    <t>Minimax</t>
+  </si>
+  <si>
+    <t>Value Function Avançado</t>
+  </si>
+  <si>
+    <t>Niveis de Dificuldade</t>
+  </si>
+  <si>
+    <t>Testes- Integração III</t>
+  </si>
+  <si>
+    <t>Testes - Aceitação II</t>
+  </si>
+  <si>
+    <t>PI - Integração II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apresentação III </t>
+  </si>
+  <si>
+    <t>Relatório de Entrega</t>
+  </si>
+  <si>
+    <t>CPI</t>
+  </si>
+  <si>
+    <t>SPI</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>release</t>
+  </si>
+  <si>
+    <t>empate</t>
+  </si>
+  <si>
+    <t>value function avançado - planejamento</t>
+  </si>
+  <si>
+    <t>minimax</t>
+  </si>
+  <si>
+    <t>Relatório de entrega parte I</t>
+  </si>
+  <si>
+    <t>Testes de aceitação - Doc</t>
+  </si>
+  <si>
+    <t>Estimativa de Esforço Inicial</t>
+  </si>
+  <si>
+    <t>Análise de Valor Agregado</t>
+  </si>
+  <si>
+    <t>Índice de Revisão</t>
+  </si>
+  <si>
+    <t>Versão</t>
+  </si>
+  <si>
+    <t>Data de Revisão</t>
+  </si>
+  <si>
+    <t>Atualizações</t>
+  </si>
+  <si>
+    <t>Responsável</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Emissão Inicial</t>
+  </si>
+  <si>
+    <t>Equipe de Projeto</t>
+  </si>
+  <si>
+    <t>XX/04/2017</t>
+  </si>
+  <si>
+    <t>Recontagem de Esforço</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,8 +508,79 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,8 +635,37 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -294,11 +673,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -320,8 +777,66 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="21" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Ênfase1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -342,6 +857,1382 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Análise do Valor Agregado</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3737388886995186"/>
+          <c:y val="2.5887641968295717E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Analise de Valor Agregado'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Analise de Valor Agregado'!$A$4:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Sprint 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sprint 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sprint 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sprint 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sprint 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sprint 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sprint 10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sprint 11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Analise de Valor Agregado'!$B$4:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"\ #,##0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>785</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1405</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1530</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1690</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2405</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2725</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3175</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3335</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3695</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Analise de Valor Agregado'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Analise de Valor Agregado'!$A$4:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Sprint 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sprint 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sprint 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sprint 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sprint 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sprint 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sprint 10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sprint 11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Analise de Valor Agregado'!$C$4:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"\ #,##0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>785</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1405</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1530</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1690</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2385</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2655</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2885</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Analise de Valor Agregado'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Analise de Valor Agregado'!$A$4:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Sprint 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sprint 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sprint 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sprint 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sprint 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sprint 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sprint 10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sprint 11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Analise de Valor Agregado'!$D$4:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"\ #,##0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1295</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1420</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1580</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2195</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2225</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="802375856"/>
+        <c:axId val="802376400"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="802375856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="802376400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="802376400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;R$&quot;\ #,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="802375856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1000126</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>998857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="276226" y="190500"/>
+          <a:ext cx="1333500" cy="808357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1104901</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>548939</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247651" y="171451"/>
+          <a:ext cx="857250" cy="377488"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1104901</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>548939</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247651" y="171451"/>
+          <a:ext cx="857250" cy="377488"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1104901</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>548939</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247651" y="171451"/>
+          <a:ext cx="857250" cy="377488"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -607,508 +2498,617 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="40"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H89"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="77" customWidth="1"/>
     <col min="2" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="6" max="6" width="49.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>58</v>
-      </c>
+    <row r="1" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7.7546296296296304E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6.5972222222222213E-4</v>
+      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
+      <c r="A5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1.0416666666666667E-3</v>
+      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>7.7546296296296304E-4</v>
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B7" s="4">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5">
-        <v>6.5972222222222213E-4</v>
+        <v>1.6203703703703703E-4</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B8" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="5">
-        <v>1.0416666666666667E-3</v>
+        <v>4.3981481481481481E-4</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B9" s="4">
-        <v>10</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1.1342592592592591E-3</v>
+      </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="4">
         <v>13</v>
       </c>
       <c r="C10" s="5">
-        <v>1.6203703703703703E-4</v>
+        <v>2.6620370370370372E-4</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B11" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C11" s="5">
+        <v>4.2824074074074075E-4</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>13</v>
+      </c>
+      <c r="C12" s="11">
         <v>4.3981481481481481E-4</v>
       </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="4">
-        <v>2</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1.1342592592592591E-3</v>
-      </c>
-      <c r="D12" s="2"/>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="10">
+        <v>8</v>
+      </c>
+      <c r="C13" s="11">
+        <v>2.5462962962962961E-4</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="10">
         <v>13</v>
       </c>
-      <c r="B13" s="4">
-        <v>13</v>
-      </c>
-      <c r="C13" s="5">
-        <v>2.6620370370370372E-4</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4">
-        <v>5</v>
-      </c>
-      <c r="C14" s="5">
-        <v>4.2824074074074075E-4</v>
-      </c>
-      <c r="D14" s="2"/>
+      <c r="C14" s="11">
+        <v>2.7199074074074074E-3</v>
+      </c>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B15" s="10">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C15" s="11">
-        <v>4.3981481481481481E-4</v>
+        <v>3.8194444444444446E-4</v>
       </c>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B16" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C16" s="11">
-        <v>2.5462962962962961E-4</v>
+        <v>1.6550925925925926E-3</v>
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B17" s="10">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C17" s="11">
-        <v>2.7199074074074074E-3</v>
-      </c>
-      <c r="H17" s="1"/>
+        <v>2.8703703703703708E-3</v>
+      </c>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B18" s="10">
+        <v>5</v>
+      </c>
+      <c r="C18" s="11">
+        <v>2.8935185185185189E-4</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1.8287037037037037E-3</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="8">
         <v>3</v>
       </c>
-      <c r="C18" s="11">
-        <v>3.8194444444444446E-4</v>
-      </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="10">
-        <v>3</v>
-      </c>
-      <c r="C19" s="11">
-        <v>1.6550925925925926E-3</v>
-      </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="10">
-        <v>5</v>
-      </c>
-      <c r="C20" s="11">
-        <v>2.8703703703703708E-3</v>
-      </c>
-      <c r="H20" s="3"/>
+      <c r="C20" s="9">
+        <v>1.1574074074074073E-4</v>
+      </c>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="10">
-        <v>5</v>
-      </c>
-      <c r="C21" s="11">
-        <v>2.8935185185185189E-4</v>
-      </c>
-      <c r="H21" s="1"/>
+      <c r="A21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8">
+        <v>8</v>
+      </c>
+      <c r="C21" s="9">
+        <v>9.8379629629629642E-4</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B22" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C22" s="9">
-        <v>1.8287037037037037E-3</v>
+        <v>1.6203703703703703E-3</v>
       </c>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B23" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C23" s="9">
-        <v>1.1574074074074073E-4</v>
-      </c>
-      <c r="H23" s="1"/>
+        <v>3.2060185185185191E-3</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="12">
+        <v>8</v>
+      </c>
+      <c r="C24" s="13">
+        <v>2.0023148148148148E-3</v>
+      </c>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="12">
         <v>20</v>
       </c>
-      <c r="B24" s="8">
-        <v>8</v>
-      </c>
-      <c r="C24" s="9">
-        <v>9.8379629629629642E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="8">
-        <v>5</v>
-      </c>
-      <c r="C25" s="9">
-        <v>1.6203703703703703E-3</v>
-      </c>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="8">
-        <v>5</v>
-      </c>
-      <c r="C26" s="9">
-        <v>3.2060185185185191E-3</v>
-      </c>
+      <c r="C26" s="13">
+        <v>1.2037037037037038E-3</v>
+      </c>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" s="12">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C27" s="13">
-        <v>2.0023148148148148E-3</v>
+        <v>3.530092592592592E-3</v>
       </c>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B28" s="12">
+        <v>5</v>
+      </c>
+      <c r="C28" s="13">
+        <v>1.8055555555555557E-3</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B29" s="12">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C29" s="13">
-        <v>1.2037037037037038E-3</v>
+        <v>5.9027777777777778E-4</v>
       </c>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B30" s="12">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C30" s="13">
-        <v>3.530092592592592E-3</v>
+        <v>1.3888888888888889E-4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
       </c>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B31" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C31" s="13">
-        <v>1.8055555555555557E-3</v>
-      </c>
+        <v>1.3888888888888889E-4</v>
+      </c>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B32" s="12">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C32" s="13">
-        <v>5.9027777777777778E-4</v>
-      </c>
-      <c r="H32" s="1"/>
+        <v>9.2592592592592588E-5</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="12">
         <v>8</v>
       </c>
-      <c r="B33" s="12">
-        <v>2</v>
-      </c>
       <c r="C33" s="13">
-        <v>1.3888888888888889E-4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>23</v>
+        <v>9.2592592592592588E-5</v>
       </c>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B34" s="12">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C34" s="13">
-        <v>1.3888888888888889E-4</v>
+        <v>8.1018518518518516E-5</v>
       </c>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B35" s="12">
         <v>8</v>
       </c>
       <c r="C35" s="13">
-        <v>9.2592592592592588E-5</v>
-      </c>
+        <v>5.7870370370370366E-5</v>
+      </c>
+      <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="14">
+        <v>13</v>
+      </c>
+      <c r="C36" s="15">
+        <v>6.7939814814814816E-3</v>
+      </c>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="14">
+        <v>100</v>
+      </c>
+      <c r="C37" s="15">
+        <v>2.3842592592592591E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="14">
         <v>5</v>
       </c>
-      <c r="B36" s="12">
-        <v>8</v>
-      </c>
-      <c r="C36" s="13">
-        <v>9.2592592592592588E-5</v>
-      </c>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="12">
-        <v>8</v>
-      </c>
-      <c r="C37" s="13">
-        <v>8.1018518518518516E-5</v>
-      </c>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="12">
-        <v>8</v>
-      </c>
-      <c r="C38" s="13">
-        <v>5.7870370370370366E-5</v>
-      </c>
-      <c r="H38" s="1"/>
+      <c r="C38" s="15">
+        <v>6.3657407407407402E-4</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39" s="14">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C39" s="15">
-        <v>6.7939814814814816E-3</v>
-      </c>
-      <c r="H39" s="1"/>
+        <v>4.4328703703703709E-3</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B40" s="14">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C40" s="15">
-        <v>2.3842592592592591E-3</v>
+        <v>1.1458333333333333E-3</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="14">
-        <v>5</v>
-      </c>
-      <c r="C41" s="15">
-        <v>6.3657407407407402E-4</v>
+      <c r="A41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="6">
+        <v>40</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1.6087962962962963E-3</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="14">
-        <v>40</v>
-      </c>
-      <c r="C42" s="15">
-        <v>4.4328703703703709E-3</v>
+      <c r="A42" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="6">
+        <v>7</v>
+      </c>
+      <c r="C42" s="7">
+        <v>8.2175925925925917E-4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="14">
-        <v>20</v>
-      </c>
-      <c r="C43" s="15">
-        <v>1.1458333333333333E-3</v>
+      <c r="A43" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="6">
+        <v>7</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1.1574074074074073E-4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B44" s="6">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C44" s="7">
-        <v>1.6087962962962963E-3</v>
+        <v>1.1574074074074073E-4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B45" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C45" s="7">
-        <v>8.2175925925925917E-4</v>
+        <v>9.2592592592592585E-4</v>
       </c>
       <c r="D45" t="s">
         <v>23</v>
@@ -1116,10 +3116,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" s="6">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C46" s="7">
         <v>1.1574074074074073E-4</v>
@@ -1129,42 +3129,42 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B47" s="6">
+      <c r="A47" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="16">
         <v>7</v>
       </c>
-      <c r="C47" s="7">
-        <v>1.1574074074074073E-4</v>
+      <c r="C47" s="17">
+        <v>1.0416666666666667E-3</v>
       </c>
       <c r="D47" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="6">
-        <v>10</v>
-      </c>
-      <c r="C48" s="7">
-        <v>9.2592592592592585E-4</v>
+      <c r="A48" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="16">
+        <v>7</v>
+      </c>
+      <c r="C48" s="17">
+        <v>3.4722222222222224E-4</v>
       </c>
       <c r="D48" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="6">
-        <v>11</v>
-      </c>
-      <c r="C49" s="7">
-        <v>1.1574074074074073E-4</v>
+      <c r="A49" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="16">
+        <v>7</v>
+      </c>
+      <c r="C49" s="17">
+        <v>4.0509259259259258E-4</v>
       </c>
       <c r="D49" t="s">
         <v>23</v>
@@ -1172,122 +3172,92 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B50" s="16">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C50" s="17">
-        <v>1.0416666666666667E-3</v>
-      </c>
-      <c r="D50" t="s">
-        <v>23</v>
-      </c>
+        <v>9.2592592592592585E-4</v>
+      </c>
+      <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B51" s="16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C51" s="17">
-        <v>3.4722222222222224E-4</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="D51" t="s">
         <v>23</v>
       </c>
+      <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B52" s="16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C52" s="17">
-        <v>4.0509259259259258E-4</v>
+        <v>5.6712962962962958E-3</v>
       </c>
       <c r="D52" t="s">
         <v>23</v>
       </c>
+      <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B53" s="16">
+        <v>5</v>
+      </c>
+      <c r="C53" s="17">
+        <v>4.7337962962962998E-2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" s="19">
         <v>13</v>
       </c>
-      <c r="C53" s="17">
-        <v>9.2592592592592585E-4</v>
-      </c>
-      <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B54" s="16">
-        <v>5</v>
-      </c>
-      <c r="C54" s="17">
-        <v>5.5555555555555558E-3</v>
-      </c>
-      <c r="D54" t="s">
-        <v>23</v>
+      <c r="C54" s="20">
+        <v>5.7870370370370376E-3</v>
       </c>
       <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B55" s="16">
-        <v>5</v>
-      </c>
-      <c r="C55" s="17">
-        <v>5.6712962962962958E-3</v>
-      </c>
-      <c r="D55" t="s">
-        <v>23</v>
-      </c>
-      <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B56" s="16">
-        <v>5</v>
-      </c>
-      <c r="C56" s="17">
-        <v>4.7337962962962998E-2</v>
-      </c>
-      <c r="D56" t="s">
-        <v>23</v>
-      </c>
-      <c r="H56" s="1"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B57" s="19">
-        <v>13</v>
-      </c>
-      <c r="C57" s="20">
-        <v>5.7870370370370376E-3</v>
-      </c>
-      <c r="H57" s="1"/>
+      <c r="A55" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" s="18">
+        <v>530</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B58" s="18">
-        <v>530</v>
-      </c>
+      <c r="C58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C60" s="1"/>
+      <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C61" s="1"/>
@@ -1343,33 +3313,1335 @@
     </row>
     <row r="74" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C74" s="1"/>
-      <c r="H74" s="1"/>
-    </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C75" s="1"/>
-      <c r="H75" s="1"/>
-    </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C76" s="1"/>
-      <c r="H76" s="1"/>
-    </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C77" s="1"/>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C85" s="1"/>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C92" s="1"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" s="1"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C89" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="22">
+        <f>SUM(B3:B11)</f>
+        <v>48</v>
+      </c>
+      <c r="C12" s="22">
+        <f>SUM(C3:C11)</f>
+        <v>27</v>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="23">
+        <v>480</v>
+      </c>
+      <c r="C13" s="23">
+        <v>270</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="J16" s="30"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" s="30">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <f>8+6.2</f>
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="22">
+        <f>SUM(B16:B21)</f>
+        <v>21</v>
+      </c>
+      <c r="C22" s="22">
+        <f>SUM(C16:C21)</f>
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="23">
+        <v>480</v>
+      </c>
+      <c r="C23" s="23">
+        <v>270</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F81"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="25">
+        <f>SUM(B18:B24)*10</f>
+        <v>785</v>
+      </c>
+      <c r="C4" s="25">
+        <f>SUM(C18:C24)*10</f>
+        <v>785</v>
+      </c>
+      <c r="D4" s="25">
+        <f>SUM(D18:D24)*10</f>
+        <v>675</v>
+      </c>
+      <c r="E4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4">
+        <f>C11/D11</f>
+        <v>1.2793791574279378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="25">
+        <f>SUM(B27:B28)*10+$B4</f>
+        <v>1405</v>
+      </c>
+      <c r="C5" s="25">
+        <f>SUM(C27:C28)*10+C4</f>
+        <v>1405</v>
+      </c>
+      <c r="D5" s="25">
+        <f>SUM(D27:D28)*10+D4</f>
+        <v>1295</v>
+      </c>
+      <c r="E5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5">
+        <f>C11/B11</f>
+        <v>0.96327212020033393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="25">
+        <f>SUM(B31:B33)*10+B5</f>
+        <v>1530</v>
+      </c>
+      <c r="C6" s="25">
+        <f>SUM(C31:C33)*10+C5</f>
+        <v>1530</v>
+      </c>
+      <c r="D6" s="25">
+        <f>SUM(D31:D33)*10+D5</f>
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="25">
+        <f>SUM(B36:B37)*10+B6</f>
+        <v>1690</v>
+      </c>
+      <c r="C7" s="25">
+        <f>SUM(C36:C37)*10+C6</f>
+        <v>1690</v>
+      </c>
+      <c r="D7" s="25">
+        <f>SUM(D36:D37)*10+D6</f>
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="25">
+        <f>SUM(B40:B44)*10+B7</f>
+        <v>2150</v>
+      </c>
+      <c r="C8" s="25">
+        <f>SUM(C40:C44)*10+C7</f>
+        <v>2150</v>
+      </c>
+      <c r="D8" s="25">
+        <f>SUM(D40:D44)*10+D7</f>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="25">
+        <f>SUM(B47:B51)*10+B8</f>
+        <v>2405</v>
+      </c>
+      <c r="C9" s="25">
+        <f>SUM(C47:C51)*10+C8</f>
+        <v>2385</v>
+      </c>
+      <c r="D9" s="25">
+        <f>SUM(D47:D51)*10+D8</f>
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="25">
+        <f>SUM(B54:B56)*10+B9</f>
+        <v>2725</v>
+      </c>
+      <c r="C10" s="25">
+        <f>SUM(C54:C56)*10+C9</f>
+        <v>2655</v>
+      </c>
+      <c r="D10" s="25">
+        <f>SUM(D54:D56)*10+D9</f>
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="25">
+        <f>SUM(B59:B67)*10+B10</f>
+        <v>2995</v>
+      </c>
+      <c r="C11" s="25">
+        <f>SUM(C59:C67)*10+C10</f>
+        <v>2885</v>
+      </c>
+      <c r="D11" s="25">
+        <f>SUM(D59:D67)*10+D10</f>
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="25">
+        <f>SUM(B70:B72)*10+B11</f>
+        <v>3175</v>
+      </c>
+      <c r="C12" s="25">
+        <f>SUM(C70:C72)*10</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="25">
+        <f>SUM(D70:D72)*10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="25">
+        <f>SUM(B75)*10+B12</f>
+        <v>3335</v>
+      </c>
+      <c r="C13" s="25">
+        <f>SUM(C75)*10</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="25">
+        <f>SUM(D75)*10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="25">
+        <f>SUM(B78:B81)*10+B13</f>
+        <v>3695</v>
+      </c>
+      <c r="C14" s="25">
+        <f>SUM(C78:C81)*10</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="25">
+        <f>SUM(D78:D81)*10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>30</v>
+      </c>
+      <c r="D23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24">
+        <v>6.5</v>
+      </c>
+      <c r="C24">
+        <v>6.5</v>
+      </c>
+      <c r="D24">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27">
+        <v>42</v>
+      </c>
+      <c r="C27">
+        <v>42</v>
+      </c>
+      <c r="D27">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33">
+        <v>1.5</v>
+      </c>
+      <c r="C33">
+        <v>1.5</v>
+      </c>
+      <c r="D33">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40">
+        <v>13</v>
+      </c>
+      <c r="C40">
+        <v>13</v>
+      </c>
+      <c r="D40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>7</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="D44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51">
+        <v>11.5</v>
+      </c>
+      <c r="C51">
+        <v>11.5</v>
+      </c>
+      <c r="D51">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54">
+        <v>24</v>
+      </c>
+      <c r="C54">
+        <v>24</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>6</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>8</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>8</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75">
+        <v>16</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>124</v>
+      </c>
+      <c r="B78">
+        <v>11</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>125</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>126</v>
+      </c>
+      <c r="B80">
+        <v>7</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>127</v>
+      </c>
+      <c r="B81">
+        <v>13</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="25">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="25">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>